--- a/result.xlsx
+++ b/result.xlsx
@@ -8,25 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Siza\Financial-Forecasting-with-Machine-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{471AB0EF-47EB-4981-A2B7-EFC05CD61B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEB020E-C4FB-4844-B200-23B729DCBA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9B0887F-310B-4E25-99CB-D7CDDBA4B20B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F9B0887F-310B-4E25-99CB-D7CDDBA4B20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Logistic-Regression" sheetId="1" r:id="rId1"/>
+    <sheet name="Random-Forest" sheetId="2" r:id="rId2"/>
+    <sheet name="MLP-Forecasting" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Logistic-Regression'!$A$2:$A$43</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Logistic-Regression'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Logistic-Regression'!$B$2:$B$43</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Logistic-Regression'!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Logistic-Regression'!$C$2:$C$43</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Logistic-Regression'!$A$2:$A$43</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Logistic-Regression'!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Logistic-Regression'!$B$2:$B$43</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Logistic-Regression'!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Logistic-Regression'!$C$2:$C$43</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
   <si>
     <t>Price</t>
   </si>
@@ -184,22 +174,88 @@
     <t>XRPUSDT-5 + Indicator</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Price + andicator</t>
   </si>
   <si>
     <t>Return + andicator</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>price + indicator</t>
+  </si>
+  <si>
+    <t>return + indicator</t>
+  </si>
+  <si>
+    <t>ADAUSDT - 2</t>
+  </si>
+  <si>
+    <t>ADAUSDT - 3</t>
+  </si>
+  <si>
+    <t>ADAUSDT - 5</t>
+  </si>
+  <si>
+    <t>BNBUSDT - 2</t>
+  </si>
+  <si>
+    <t>BNBUSDT - 3</t>
+  </si>
+  <si>
+    <t>BNBUSDT - 5</t>
+  </si>
+  <si>
+    <t>BTCUSDT - 2</t>
+  </si>
+  <si>
+    <t>BTCUSDT - 3</t>
+  </si>
+  <si>
+    <t>BTCUSDT - 5</t>
+  </si>
+  <si>
+    <t>DOTUSDT - 2</t>
+  </si>
+  <si>
+    <t>DOTUSDT - 3</t>
+  </si>
+  <si>
+    <t>DOTUSDT - 5</t>
+  </si>
+  <si>
+    <t>ETHUSDT - 2</t>
+  </si>
+  <si>
+    <t>ETHUSDT - 3</t>
+  </si>
+  <si>
+    <t>ETHUSDT - 5</t>
+  </si>
+  <si>
+    <t>SOLUSDT - 2</t>
+  </si>
+  <si>
+    <t>SOLUSDT - 3</t>
+  </si>
+  <si>
+    <t>SOLUSDT - 5</t>
+  </si>
+  <si>
+    <t>XRPSUDT - 2</t>
+  </si>
+  <si>
+    <t>XRPSUDT - 3</t>
+  </si>
+  <si>
+    <t>XRPSUDT - 5</t>
   </si>
 </sst>
 </file>
@@ -310,7 +366,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$H$1</c:f>
+              <c:f>'Logistic-Regression'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -331,7 +387,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$G$2:$G$22</c:f>
+              <c:f>'Logistic-Regression'!$A$2:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -402,7 +458,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Logistic-Regression'!$H$2:$H$22</c:f>
+              <c:f>'Logistic-Regression'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -483,7 +539,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$I$1</c:f>
+              <c:f>'Logistic-Regression'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -504,7 +560,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$G$2:$G$22</c:f>
+              <c:f>'Logistic-Regression'!$A$2:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -575,7 +631,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Logistic-Regression'!$I$2:$I$22</c:f>
+              <c:f>'Logistic-Regression'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -903,7 +959,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$H$26</c:f>
+              <c:f>'Logistic-Regression'!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -924,7 +980,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$G$27:$G$47</c:f>
+              <c:f>'Logistic-Regression'!$A$27:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -995,7 +1051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Logistic-Regression'!$H$27:$H$47</c:f>
+              <c:f>'Logistic-Regression'!$B$27:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1076,7 +1132,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$I$26</c:f>
+              <c:f>'Logistic-Regression'!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1097,7 +1153,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$G$27:$G$47</c:f>
+              <c:f>'Logistic-Regression'!$A$27:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -1168,7 +1224,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Logistic-Regression'!$I$27:$I$47</c:f>
+              <c:f>'Logistic-Regression'!$C$27:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1455,851 +1511,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Logistic-Regression'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Price</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Logistic-Regression'!$A$2:$A$43</c:f>
-              <c:strCache>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>ADAUSDTUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ADAUSDTUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ADAUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ADAUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ADAUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ADAUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>BNBUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BNBUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>BNBUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BNBUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BNBUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>BNBUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>BTCUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>BTCUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>BTCUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>BTCUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>BTCUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>BTCUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>DOTUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>DOTUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>DOTUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DOTUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>DOTUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>DOTUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ETHUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>ETHUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>ETHUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>ETHUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ETHUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>ETHUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>SOLUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>SOLUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>SOLUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>SOLUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>SOLUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>SOLUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>XRPUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>XRPUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>XRPUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>XRPUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>XRPUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>XRPUSDT-5 + Indicator</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Logistic-Regression'!$B$2:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>0.48409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47710000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53549999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.52829999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.53549999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.54420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4919</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5615</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.53320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.48089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.49299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.51229999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.51229999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.55149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.54649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.55149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.59689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.59409999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.59689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.46700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.47010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.46700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.5131</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.51359999999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.5131</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.54490000000000005</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.48849999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54490000000000005</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.55959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.53269999999999995</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.55959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.5232</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.50419999999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.5232</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.56010000000000004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.55600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.56010000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-48C6-4FEB-9293-809B0F02F9EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Logistic-Regression'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Return</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Logistic-Regression'!$A$2:$A$43</c:f>
-              <c:strCache>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>ADAUSDTUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ADAUSDTUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ADAUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ADAUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ADAUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ADAUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>BNBUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BNBUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>BNBUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BNBUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BNBUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>BNBUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>BTCUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>BTCUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>BTCUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>BTCUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>BTCUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>BTCUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>DOTUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>DOTUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>DOTUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DOTUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>DOTUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>DOTUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ETHUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>ETHUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>ETHUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>ETHUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ETHUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>ETHUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>SOLUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>SOLUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>SOLUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>SOLUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>SOLUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>SOLUSDT-5 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>XRPUSDT-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>XRPUSDT-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>XRPUSDT-5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>XRPUSDT-2 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>XRPUSDT-3 + Indicator</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>XRPUSDT-5 + Indicator</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Logistic-Regression'!$C$2:$C$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>0.49070000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4904</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49070000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53029999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5282</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.53029999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.54239999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.54100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54210000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.54069999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.53869999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.54069999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.497</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4945</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.497</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.49969999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.49969999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.49969999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.55940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.56730000000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.55940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.58589999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.61219999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.58589999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.51100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.48649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.51100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.51870000000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.51870000000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.51870000000000005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.53879999999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.53839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.53879999999999995</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.55179999999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.54179999999999995</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.55179999999999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.49569999999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.50129999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.49569999999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.56699999999999995</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.56269999999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.56699999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-48C6-4FEB-9293-809B0F02F9EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2035984624"/>
-        <c:axId val="2035984208"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2035984624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2035984208"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2035984208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2035984624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2366,7 +1577,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$B$75</c:f>
+              <c:f>'Logistic-Regression'!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2387,7 +1598,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$A$76:$A$96</c:f>
+              <c:f>'Logistic-Regression'!$A$51:$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -2458,7 +1669,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Logistic-Regression'!$B$76:$B$96</c:f>
+              <c:f>'Logistic-Regression'!$B$51:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2530,7 +1741,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FFC-4A11-9EDD-63ACB4A38579}"/>
+              <c16:uniqueId val="{00000000-2DEE-4458-8AAF-E049C7DE3976}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2539,7 +1750,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$C$75</c:f>
+              <c:f>'Logistic-Regression'!$C$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2560,7 +1771,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$A$76:$A$96</c:f>
+              <c:f>'Logistic-Regression'!$A$51:$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -2631,7 +1842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Logistic-Regression'!$C$76:$C$96</c:f>
+              <c:f>'Logistic-Regression'!$C$51:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2703,7 +1914,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6FFC-4A11-9EDD-63ACB4A38579}"/>
+              <c16:uniqueId val="{00000001-2DEE-4458-8AAF-E049C7DE3976}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2712,7 +1923,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$D$75</c:f>
+              <c:f>'Logistic-Regression'!$D$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2733,7 +1944,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$A$76:$A$96</c:f>
+              <c:f>'Logistic-Regression'!$A$51:$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -2804,7 +2015,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Logistic-Regression'!$D$76:$D$96</c:f>
+              <c:f>'Logistic-Regression'!$D$51:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2876,7 +2087,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6FFC-4A11-9EDD-63ACB4A38579}"/>
+              <c16:uniqueId val="{00000002-2DEE-4458-8AAF-E049C7DE3976}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2885,7 +2096,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$E$75</c:f>
+              <c:f>'Logistic-Regression'!$E$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2906,7 +2117,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Logistic-Regression'!$A$76:$A$96</c:f>
+              <c:f>'Logistic-Regression'!$A$51:$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -2977,7 +2188,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Logistic-Regression'!$E$76:$E$96</c:f>
+              <c:f>'Logistic-Regression'!$E$51:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3049,7 +2260,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6FFC-4A11-9EDD-63ACB4A38579}"/>
+              <c16:uniqueId val="{00000003-2DEE-4458-8AAF-E049C7DE3976}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3170,6 +2381,3095 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="3773872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random Forest</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random-Forest'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random-Forest'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random-Forest'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.53853695324283501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52630898513251401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52740788623141499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.481124956881683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49389875819248003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49232493963435597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.498840492034684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50296275613879904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49700622023670998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50846814964610698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49943124368048503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53589484327603598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48033042369479401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48361655739124199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.501873292981448</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48192120885051198</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49401870840079098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45943515020687098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.516818123088849</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50823678883672796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51373874843877798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4383-445A-B955-5612C46D7921}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random-Forest'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random-Forest'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random-Forest'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.49716655893126399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.495399698340874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51093514328808398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51138323559848198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53524922387030005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51477880303552903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53243519940434603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54213008205748603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53134937254719405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52755308392315403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52818503538928196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52110717896865499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57475855772182305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51188517815960699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55524640099489098</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.479177909695988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48727289080769898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46159381183666098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.552403204272363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53348550755846502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54255135880098204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4383-445A-B955-5612C46D7921}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random-Forest'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price + indicator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random-Forest'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random-Forest'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.55121741004093905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53336565395388902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53897866839043296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50838651259054801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51630950327699199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.490104346326319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49144523554686897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49832472427753699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49169730249584997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55061931243680395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52445652173913004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52692113245702699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46705208226747102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44129036828310297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.493589087674834</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50903939557474298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50566648677819703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53552797265695196</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51741031052155495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50723545372324397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51765795253886904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4383-445A-B955-5612C46D7921}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random-Forest'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>return + indicator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random-Forest'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random-Forest'!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.51466278819219902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51273432449903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51138763197586701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56403070024146196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56127112797516299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55664668851328003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55317837032900496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52941039601656603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53537856577783904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56995702730030295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55434782608695599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60553589484327597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58721438185267005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57065777770781301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57338900739084897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.54978413383702096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.543083288361216</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53494333513221803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59940135234075498</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59653731857530401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59369481889831599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4383-445A-B955-5612C46D7921}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="500160815"/>
+        <c:axId val="500146255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="500160815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500146255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="500146255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500160815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random-Forest'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random-Forest'!$A$26:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random-Forest'!$B$26:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.53853695324283501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52630898513251401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52740788623141499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.481124956881683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49389875819248003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49232493963435597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.498840492034684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50296275613879904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49700622023670998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50846814964610698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49943124368048503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53589484327603598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48033042369479401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48361655739124199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.501873292981448</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48192120885051198</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49401870840079098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45943515020687098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.516818123088849</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50823678883672796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51373874843877798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25D8-4322-B71E-E6F39522B8A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random-Forest'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random-Forest'!$A$26:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random-Forest'!$C$26:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.49716655893126399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.495399698340874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51093514328808398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51138323559848198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53524922387030005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51477880303552903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53243519940434603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54213008205748603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53134937254719405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52755308392315403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52818503538928196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52110717896865499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57475855772182305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51188517815960699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55524640099489098</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.479177909695988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48727289080769898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46159381183666098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.552403204272363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53348550755846502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54255135880098204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25D8-4322-B71E-E6F39522B8A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="391316351"/>
+        <c:axId val="391320095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="391316351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391320095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="391320095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391316351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random-Forest'!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price + indicator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random-Forest'!$A$49:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random-Forest'!$B$49:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.55121741004093905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53336565395388902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53897866839043296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50838651259054801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51630950327699199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.490104346326319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49144523554686897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49832472427753699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49169730249584997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55061931243680395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52445652173913004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52692113245702699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46705208226747102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44129036828310297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.493589087674834</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50903939557474298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50566648677819703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53552797265695196</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51741031052155495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50723545372324397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51765795253886904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B3F-4ACA-BC5F-E3A7F0AAB5A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random-Forest'!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>return + indicator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random-Forest'!$A$49:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random-Forest'!$C$49:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.51466278819219902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51273432449903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51138763197586701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56403070024146196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56127112797516299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55664668851328003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55317837032900496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52941039601656603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53537856577783904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56995702730030295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55434782608695599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60553589484327597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58721438185267005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57065777770781301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57338900739084897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.54978413383702096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.543083288361216</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53494333513221803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59940135234075498</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59653731857530401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59369481889831599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B3F-4ACA-BC5F-E3A7F0AAB5A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="388547759"/>
+        <c:axId val="388550255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388547759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388550255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388550255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388547759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MLP-Forecasting'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MLP-Forecasting'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MLP-Forecasting'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.48723897337913502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48723897337913502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48723897337913502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51740139722824052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51740139722823997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51740139722824097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52433937788009599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52433937788009599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52433937788009599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5252132925442603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.516853928565979</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53370785713195801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52608323485927588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5198008272405884</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49649803014817812</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49187934398651101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50116008520126298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7956-4036-B2D4-D60E3E74DE3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MLP-Forecasting'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MLP-Forecasting'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MLP-Forecasting'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.51391980241052271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.515081226825714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51276099681854204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56263425439135162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56612527370452803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55916476249694802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52990081179305659</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.528511822223663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53129345178604104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57016243076207929</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57865166664123502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56179773807525601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54084994222057559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56132561851388896</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51159959633482532</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51044082641601496</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51276099681854204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7956-4036-B2D4-D60E3E74DE3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MLP-Forecasting'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price + indicator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MLP-Forecasting'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MLP-Forecasting'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.51624000856739194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51740139722824097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.515081226825714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51740139722824097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51740139722824097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51740139722824097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52433937788009599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52433937788009599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52433937788009599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52797033603118393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53932583332061701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.516853928565979</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53174980959093909</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55313589650283956</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50809943686433434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50348025560378995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51276099681854204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7956-4036-B2D4-D60E3E74DE3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MLP-Forecasting'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>return + indicator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MLP-Forecasting'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>ADAUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ADAUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADAUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNBUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BNBUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BNBUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BTCUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTCUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BTCUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DOTUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DOTUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DOTUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ETHUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ETHUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ETHUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SOLUSDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SOLUSDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SOLUSDT - 5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>XRPSUDT - 2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>XRPSUDT - 3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>XRPSUDT - 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MLP-Forecasting'!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.49766764579724015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50116008520126298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49419954419135997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51971638868702774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51740139722824097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52204173803329401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52433937788009599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52433937788009599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52433937788009599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.505617976188659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.505617976188659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.505617976188659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5412995473857336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55851696482738999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5444</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52686723168505178</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51348025560378996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54060322046279896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7956-4036-B2D4-D60E3E74DE3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="391317599"/>
+        <c:axId val="391320511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="391317599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391320511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="391320511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391317599"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3409,6 +5709,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5421,20 +7841,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5461,16 +9390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5497,23 +9426,138 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC34670-BA15-2FB1-173B-361DEA81BD84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1739C74E-01A0-4DE4-8E91-72FE2DBE9054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1349AADF-2E03-65CF-BC22-5E4BCDC2CB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E63253F-47A6-E47C-E9EA-24C739F07AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926AAB7D-8264-1CA7-FC66-3D25A5860ED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5531,25 +9575,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9A7953-EDA0-922C-ECFA-65249CBAF02D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1283E3DD-A1DF-E064-E852-8ADFBAF0C671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5561,7 +9610,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5867,10 +9916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF751330-53A4-4BD3-A951-74B6BFEDE8D4}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5881,7 +9930,7 @@
     <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5891,17 +9940,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5911,17 +9951,8 @@
       <c r="C2">
         <v>0.49070000000000003</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>0.48409999999999997</v>
-      </c>
-      <c r="I2">
-        <v>0.49070000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5931,17 +9962,8 @@
       <c r="C3">
         <v>0.4904</v>
       </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>0.47710000000000002</v>
-      </c>
-      <c r="I3">
-        <v>0.4904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5951,1185 +9973,2124 @@
       <c r="C4">
         <v>0.49070000000000003</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.54239999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.4919</v>
+      </c>
+      <c r="C6">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.54210000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.4945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.55940000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.56730000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.55940000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0.47010000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.48649999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C16">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="C17">
+        <v>0.53879999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.53839999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="C19">
+        <v>0.53879999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>0.5232</v>
+      </c>
+      <c r="C20">
+        <v>0.49569999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="C21">
+        <v>0.50129999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>0.5232</v>
+      </c>
+      <c r="C22">
+        <v>0.49569999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.5282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>0.5615</v>
+      </c>
+      <c r="C30">
+        <v>0.54069999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.53869999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>0.5615</v>
+      </c>
+      <c r="C32">
+        <v>0.54069999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.49969999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>0.49969999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="C35">
+        <v>0.49969999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.58589999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="C37">
+        <v>0.61219999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.58589999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>0.5131</v>
+      </c>
+      <c r="C39">
+        <v>0.51870000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="C40">
+        <v>0.51870000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>0.5131</v>
+      </c>
+      <c r="C41">
+        <v>0.51870000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.55179999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="C43">
+        <v>0.54179999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.55179999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="C45">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C46">
+        <v>0.56269999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="C47">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>0.48409999999999997</v>
+      </c>
+      <c r="C51">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="D51">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="C52">
+        <v>0.4904</v>
+      </c>
+      <c r="D52">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.5282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="B53">
         <v>0.48409999999999997</v>
       </c>
-      <c r="I4">
+      <c r="C53">
         <v>0.49070000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="E53">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="C54">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="D54">
+        <v>0.5615</v>
+      </c>
+      <c r="E54">
+        <v>0.54069999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>0.4919</v>
+      </c>
+      <c r="C55">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D55">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.53869999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="C56">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="D56">
+        <v>0.5615</v>
+      </c>
+      <c r="E56">
+        <v>0.54069999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.497</v>
+      </c>
+      <c r="D57">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="E57">
+        <v>0.49969999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="C58">
+        <v>0.4945</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>0.49969999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.497</v>
+      </c>
+      <c r="D59">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="E59">
+        <v>0.49969999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="C60">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="D60">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.58589999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="D61">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="E61">
+        <v>0.61219999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="C62">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="D62">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="E62">
+        <v>0.58589999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C63">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D63">
+        <v>0.5131</v>
+      </c>
+      <c r="E63">
+        <v>0.51870000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>0.47010000000000002</v>
+      </c>
+      <c r="C64">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="D64">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="E64">
+        <v>0.51870000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C65">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D65">
+        <v>0.5131</v>
+      </c>
+      <c r="E65">
+        <v>0.51870000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="C66">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="D66">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="E66">
+        <v>0.55179999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="C67">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="D67">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="E67">
+        <v>0.54179999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="C68">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="D68">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="E68">
+        <v>0.55179999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>0.5232</v>
+      </c>
+      <c r="C69">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="D69">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="E69">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="C70">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="D70">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E70">
+        <v>0.56269999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71">
+        <v>0.5232</v>
+      </c>
+      <c r="C71">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="D71">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="E71">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746AF6FA-B787-4D3D-8359-456EBD94CEAF}">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="A1:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>0.53853695324283501</v>
+      </c>
+      <c r="C2">
+        <v>0.49716655893126399</v>
+      </c>
+      <c r="D2">
+        <v>0.55121741004093905</v>
+      </c>
+      <c r="E2">
+        <v>0.51466278819219902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>0.52630898513251401</v>
+      </c>
+      <c r="C3">
+        <v>0.495399698340874</v>
+      </c>
+      <c r="D3">
+        <v>0.53336565395388902</v>
+      </c>
+      <c r="E3">
+        <v>0.51273432449903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>0.52740788623141499</v>
+      </c>
+      <c r="C4">
+        <v>0.51093514328808398</v>
+      </c>
+      <c r="D4">
+        <v>0.53897866839043296</v>
+      </c>
+      <c r="E4">
+        <v>0.51138763197586701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>0.53549999999999998</v>
+        <v>0.481124956881683</v>
       </c>
       <c r="C5">
+        <v>0.51138323559848198</v>
+      </c>
+      <c r="D5">
+        <v>0.50838651259054801</v>
+      </c>
+      <c r="E5">
+        <v>0.56403070024146196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>0.49389875819248003</v>
+      </c>
+      <c r="C6">
+        <v>0.53524922387030005</v>
+      </c>
+      <c r="D6">
+        <v>0.51630950327699199</v>
+      </c>
+      <c r="E6">
+        <v>0.56127112797516299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>0.49232493963435597</v>
+      </c>
+      <c r="C7">
+        <v>0.51477880303552903</v>
+      </c>
+      <c r="D7">
+        <v>0.490104346326319</v>
+      </c>
+      <c r="E7">
+        <v>0.55664668851328003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>0.498840492034684</v>
+      </c>
+      <c r="C8">
+        <v>0.53243519940434603</v>
+      </c>
+      <c r="D8">
+        <v>0.49144523554686897</v>
+      </c>
+      <c r="E8">
+        <v>0.55317837032900496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>0.50296275613879904</v>
+      </c>
+      <c r="C9">
+        <v>0.54213008205748603</v>
+      </c>
+      <c r="D9">
+        <v>0.49832472427753699</v>
+      </c>
+      <c r="E9">
+        <v>0.52941039601656603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0.49700622023670998</v>
+      </c>
+      <c r="C10">
+        <v>0.53134937254719405</v>
+      </c>
+      <c r="D10">
+        <v>0.49169730249584997</v>
+      </c>
+      <c r="E10">
+        <v>0.53537856577783904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>0.50846814964610698</v>
+      </c>
+      <c r="C11">
+        <v>0.52755308392315403</v>
+      </c>
+      <c r="D11">
+        <v>0.55061931243680395</v>
+      </c>
+      <c r="E11">
+        <v>0.56995702730030295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>0.49943124368048503</v>
+      </c>
+      <c r="C12">
+        <v>0.52818503538928196</v>
+      </c>
+      <c r="D12">
+        <v>0.52445652173913004</v>
+      </c>
+      <c r="E12">
+        <v>0.55434782608695599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>0.53589484327603598</v>
+      </c>
+      <c r="C13">
+        <v>0.52110717896865499</v>
+      </c>
+      <c r="D13">
+        <v>0.52692113245702699</v>
+      </c>
+      <c r="E13">
+        <v>0.60553589484327597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>0.48033042369479401</v>
+      </c>
+      <c r="C14">
+        <v>0.57475855772182305</v>
+      </c>
+      <c r="D14">
+        <v>0.46705208226747102</v>
+      </c>
+      <c r="E14">
+        <v>0.58721438185267005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.48361655739124199</v>
+      </c>
+      <c r="C15">
+        <v>0.51188517815960699</v>
+      </c>
+      <c r="D15">
+        <v>0.44129036828310297</v>
+      </c>
+      <c r="E15">
+        <v>0.57065777770781301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>0.501873292981448</v>
+      </c>
+      <c r="C16">
+        <v>0.55524640099489098</v>
+      </c>
+      <c r="D16">
+        <v>0.493589087674834</v>
+      </c>
+      <c r="E16">
+        <v>0.57338900739084897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>0.48192120885051198</v>
+      </c>
+      <c r="C17">
+        <v>0.479177909695988</v>
+      </c>
+      <c r="D17">
+        <v>0.50903939557474298</v>
+      </c>
+      <c r="E17">
+        <v>0.54978413383702096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>0.49401870840079098</v>
+      </c>
+      <c r="C18">
+        <v>0.48727289080769898</v>
+      </c>
+      <c r="D18">
+        <v>0.50566648677819703</v>
+      </c>
+      <c r="E18">
+        <v>0.543083288361216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>0.45943515020687098</v>
+      </c>
+      <c r="C19">
+        <v>0.46159381183666098</v>
+      </c>
+      <c r="D19">
+        <v>0.53552797265695196</v>
+      </c>
+      <c r="E19">
+        <v>0.53494333513221803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>0.516818123088849</v>
+      </c>
+      <c r="C20">
+        <v>0.552403204272363</v>
+      </c>
+      <c r="D20">
+        <v>0.51741031052155495</v>
+      </c>
+      <c r="E20">
+        <v>0.59940135234075498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>0.50823678883672796</v>
+      </c>
+      <c r="C21">
+        <v>0.53348550755846502</v>
+      </c>
+      <c r="D21">
+        <v>0.50723545372324397</v>
+      </c>
+      <c r="E21">
+        <v>0.59653731857530401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>0.51373874843877798</v>
+      </c>
+      <c r="C22">
+        <v>0.54255135880098204</v>
+      </c>
+      <c r="D22">
+        <v>0.51765795253886904</v>
+      </c>
+      <c r="E22">
+        <v>0.59369481889831599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>0.53853695324283501</v>
+      </c>
+      <c r="C26">
+        <v>0.49716655893126399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>0.52630898513251401</v>
+      </c>
+      <c r="C27">
+        <v>0.495399698340874</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>0.52740788623141499</v>
+      </c>
+      <c r="C28">
+        <v>0.51093514328808398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>0.481124956881683</v>
+      </c>
+      <c r="C29">
+        <v>0.51138323559848198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>0.49389875819248003</v>
+      </c>
+      <c r="C30">
+        <v>0.53524922387030005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>0.49232493963435597</v>
+      </c>
+      <c r="C31">
+        <v>0.51477880303552903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>0.498840492034684</v>
+      </c>
+      <c r="C32">
+        <v>0.53243519940434603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33">
+        <v>0.50296275613879904</v>
+      </c>
+      <c r="C33">
+        <v>0.54213008205748603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <v>0.49700622023670998</v>
+      </c>
+      <c r="C34">
+        <v>0.53134937254719405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35">
+        <v>0.50846814964610698</v>
+      </c>
+      <c r="C35">
+        <v>0.52755308392315403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>0.49943124368048503</v>
+      </c>
+      <c r="C36">
+        <v>0.52818503538928196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>0.53589484327603598</v>
+      </c>
+      <c r="C37">
+        <v>0.52110717896865499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <v>0.48033042369479401</v>
+      </c>
+      <c r="C38">
+        <v>0.57475855772182305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>0.48361655739124199</v>
+      </c>
+      <c r="C39">
+        <v>0.51188517815960699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <v>0.501873292981448</v>
+      </c>
+      <c r="C40">
+        <v>0.55524640099489098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>0.48192120885051198</v>
+      </c>
+      <c r="C41">
+        <v>0.479177909695988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>0.49401870840079098</v>
+      </c>
+      <c r="C42">
+        <v>0.48727289080769898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>0.45943515020687098</v>
+      </c>
+      <c r="C43">
+        <v>0.46159381183666098</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>0.516818123088849</v>
+      </c>
+      <c r="C44">
+        <v>0.552403204272363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>0.50823678883672796</v>
+      </c>
+      <c r="C45">
+        <v>0.53348550755846502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <v>0.51373874843877798</v>
+      </c>
+      <c r="C46">
+        <v>0.54255135880098204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>0.55121741004093905</v>
+      </c>
+      <c r="C49">
+        <v>0.51466278819219902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>0.53336565395388902</v>
+      </c>
+      <c r="C50">
+        <v>0.51273432449903</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>0.53897866839043296</v>
+      </c>
+      <c r="C51">
+        <v>0.51138763197586701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>0.50838651259054801</v>
+      </c>
+      <c r="C52">
+        <v>0.56403070024146196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>0.51630950327699199</v>
+      </c>
+      <c r="C53">
+        <v>0.56127112797516299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>0.490104346326319</v>
+      </c>
+      <c r="C54">
+        <v>0.55664668851328003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>0.49144523554686897</v>
+      </c>
+      <c r="C55">
+        <v>0.55317837032900496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>0.49832472427753699</v>
+      </c>
+      <c r="C56">
+        <v>0.52941039601656603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>0.49169730249584997</v>
+      </c>
+      <c r="C57">
+        <v>0.53537856577783904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>0.55061931243680395</v>
+      </c>
+      <c r="C58">
+        <v>0.56995702730030295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>0.52445652173913004</v>
+      </c>
+      <c r="C59">
+        <v>0.55434782608695599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>0.52692113245702699</v>
+      </c>
+      <c r="C60">
+        <v>0.60553589484327597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>0.46705208226747102</v>
+      </c>
+      <c r="C61">
+        <v>0.58721438185267005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>0.44129036828310297</v>
+      </c>
+      <c r="C62">
+        <v>0.57065777770781301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>0.493589087674834</v>
+      </c>
+      <c r="C63">
+        <v>0.57338900739084897</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>0.50903939557474298</v>
+      </c>
+      <c r="C64">
+        <v>0.54978413383702096</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>0.50566648677819703</v>
+      </c>
+      <c r="C65">
+        <v>0.543083288361216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>0.53552797265695196</v>
+      </c>
+      <c r="C66">
+        <v>0.53494333513221803</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>0.51741031052155495</v>
+      </c>
+      <c r="C67">
+        <v>0.59940135234075498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>0.50723545372324397</v>
+      </c>
+      <c r="C68">
+        <v>0.59653731857530401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>0.51765795253886904</v>
+      </c>
+      <c r="C69">
+        <v>0.59369481889831599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901EA660-D842-48F5-B718-9A565408BE19}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17317" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <f>SQRT(B3*B4)</f>
+        <v>0.48723897337913502</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:E2" si="0">SQRT(C3*C4)</f>
+        <v>0.51391980241052271</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.51624000856739194</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.49766764579724015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>0.48723897337913502</v>
+      </c>
+      <c r="C3">
+        <v>0.515081226825714</v>
+      </c>
+      <c r="D3">
+        <v>0.51740139722824097</v>
+      </c>
+      <c r="E3">
+        <v>0.50116008520126298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>0.48723897337913502</v>
+      </c>
+      <c r="C4">
+        <v>0.51276099681854204</v>
+      </c>
+      <c r="D4">
+        <v>0.515081226825714</v>
+      </c>
+      <c r="E4">
+        <v>0.49419954419135997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <f>SQRT(B6*B7)</f>
+        <v>0.51740139722824052</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:E5" si="1">SQRT(C6*C7)</f>
+        <v>0.56263425439135162</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.51740139722824097</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.51971638868702774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>0.51740139722823997</v>
+      </c>
+      <c r="C6">
+        <v>0.56612527370452803</v>
+      </c>
+      <c r="D6">
+        <v>0.51740139722824097</v>
+      </c>
+      <c r="E6">
+        <v>0.51740139722824097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>0.51740139722824097</v>
+      </c>
+      <c r="C7">
+        <v>0.55916476249694802</v>
+      </c>
+      <c r="D7">
+        <v>0.51740139722824097</v>
+      </c>
+      <c r="E7">
+        <v>0.52204173803329401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>SQRT(B9*B10)</f>
+        <v>0.52433937788009599</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:E8" si="2">SQRT(C9*C10)</f>
+        <v>0.52990081179305659</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.52433937788009599</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.52433937788009599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>0.52433937788009599</v>
+      </c>
+      <c r="C9">
+        <v>0.528511822223663</v>
+      </c>
+      <c r="D9">
+        <v>0.52433937788009599</v>
+      </c>
+      <c r="E9">
+        <v>0.52433937788009599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0.52433937788009599</v>
+      </c>
+      <c r="C10">
+        <v>0.53129345178604104</v>
+      </c>
+      <c r="D10">
+        <v>0.52433937788009599</v>
+      </c>
+      <c r="E10">
+        <v>0.52433937788009599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <f>SQRT(B12*B13)</f>
+        <v>0.5252132925442603</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:E11" si="3">SQRT(C12*C13)</f>
+        <v>0.57016243076207929</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0.52797033603118393</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0.505617976188659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>0.516853928565979</v>
+      </c>
+      <c r="C12">
+        <v>0.57865166664123502</v>
+      </c>
+      <c r="D12">
+        <v>0.53932583332061701</v>
+      </c>
+      <c r="E12">
+        <v>0.505617976188659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>0.53370785713195801</v>
+      </c>
+      <c r="C13">
+        <v>0.56179773807525601</v>
+      </c>
+      <c r="D13">
+        <v>0.516853928565979</v>
+      </c>
+      <c r="E13">
+        <v>0.505617976188659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <f>SQRT(B15*B16)</f>
+        <v>0.52608323485927588</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:E14" si="4">SQRT(C15*C16)</f>
+        <v>0.54084994222057559</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>0.53174980959093909</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>0.5412995473857336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
         <v>0.53029999999999999</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>0.54420000000000002</v>
-      </c>
-      <c r="I5">
-        <v>0.54239999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.52829999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.5282</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>0.4919</v>
-      </c>
-      <c r="I6">
-        <v>0.54100000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="C7">
-        <v>0.53029999999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>0.54420000000000002</v>
-      </c>
-      <c r="I7">
-        <v>0.54210000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.54420000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0.54239999999999999</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.4919</v>
-      </c>
-      <c r="C9">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>0.48089999999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.4945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.54420000000000002</v>
-      </c>
-      <c r="C10">
-        <v>0.54210000000000003</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0.5615</v>
-      </c>
-      <c r="C11">
-        <v>0.54069999999999996</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11">
-        <v>0.55149999999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.55940000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="C12">
-        <v>0.53869999999999996</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12">
-        <v>0.54649999999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.56730000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0.5615</v>
-      </c>
-      <c r="C13">
-        <v>0.54069999999999996</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13">
-        <v>0.55149999999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.55940000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.497</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="I14">
-        <v>0.51100000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.48089999999999999</v>
-      </c>
       <c r="C15">
-        <v>0.4945</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15">
-        <v>0.47010000000000002</v>
-      </c>
-      <c r="I15">
-        <v>0.48649999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="D15">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B16">
-        <v>0.49299999999999999</v>
+        <v>0.52190000000000003</v>
       </c>
       <c r="C16">
-        <v>0.497</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="I16">
-        <v>0.51100000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.54110000000000003</v>
+      </c>
+      <c r="D16">
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.54059999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B17">
-        <v>0.51229999999999998</v>
+        <f>SQRT(B18*B19)</f>
+        <v>0.5198008272405884</v>
       </c>
       <c r="C17">
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="I17">
-        <v>0.53879999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C17:E17" si="5">SQRT(C18*C19)</f>
+        <v>0.56132561851388896</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>0.55313589650283956</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>0.55851696482738999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.51270000000000004</v>
       </c>
       <c r="C18">
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18">
-        <v>0.48849999999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.53839999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.5444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B19">
-        <v>0.51229999999999998</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C19">
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="I19">
-        <v>0.53879999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="D19">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="E19">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B20">
-        <v>0.55149999999999999</v>
+        <f>SQRT(B21*B22)</f>
+        <v>0.49649803014817812</v>
       </c>
       <c r="C20">
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20">
-        <v>0.5232</v>
-      </c>
-      <c r="I20">
-        <v>0.49569999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C20:E20" si="6">SQRT(C21*C22)</f>
+        <v>0.51159959633482532</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>0.50809943686433434</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>0.52686723168505178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B21">
-        <v>0.54649999999999999</v>
+        <v>0.49187934398651101</v>
       </c>
       <c r="C21">
-        <v>0.56730000000000003</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21">
-        <v>0.50419999999999998</v>
-      </c>
-      <c r="I21">
-        <v>0.50129999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.51044082641601496</v>
+      </c>
+      <c r="D21">
+        <v>0.50348025560378995</v>
+      </c>
+      <c r="E21">
+        <v>0.51348025560378996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B22">
-        <v>0.55149999999999999</v>
+        <v>0.50116008520126298</v>
       </c>
       <c r="C22">
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22">
-        <v>0.5232</v>
-      </c>
-      <c r="I22">
-        <v>0.49569999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0.59689999999999999</v>
-      </c>
-      <c r="C23">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>0.59409999999999996</v>
-      </c>
-      <c r="C24">
-        <v>0.61219999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>0.59689999999999999</v>
-      </c>
-      <c r="C25">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="C26">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>0.47010000000000002</v>
-      </c>
-      <c r="C27">
-        <v>0.48649999999999999</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="I27">
-        <v>0.53029999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="C28">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <v>0.52829999999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.5282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>0.5131</v>
-      </c>
-      <c r="C29">
-        <v>0.51870000000000005</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="I29">
-        <v>0.53029999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0.51359999999999995</v>
-      </c>
-      <c r="C30">
-        <v>0.51870000000000005</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30">
-        <v>0.5615</v>
-      </c>
-      <c r="I30">
-        <v>0.54069999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0.5131</v>
-      </c>
-      <c r="C31">
-        <v>0.51870000000000005</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.53869999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="C32">
-        <v>0.53879999999999995</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32">
-        <v>0.5615</v>
-      </c>
-      <c r="I32">
-        <v>0.54069999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0.48849999999999999</v>
-      </c>
-      <c r="C33">
-        <v>0.53839999999999999</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33">
-        <v>0.51229999999999998</v>
-      </c>
-      <c r="I33">
-        <v>0.49969999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="C34">
-        <v>0.53879999999999995</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34">
-        <v>0.5</v>
-      </c>
-      <c r="I34">
-        <v>0.49969999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="C35">
-        <v>0.55179999999999996</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35">
-        <v>0.51229999999999998</v>
-      </c>
-      <c r="I35">
-        <v>0.49969999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>0.53269999999999995</v>
-      </c>
-      <c r="C36">
-        <v>0.54179999999999995</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36">
-        <v>0.59689999999999999</v>
-      </c>
-      <c r="I36">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="C37">
-        <v>0.55179999999999996</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37">
-        <v>0.59409999999999996</v>
-      </c>
-      <c r="I37">
-        <v>0.61219999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>0.5232</v>
-      </c>
-      <c r="C38">
-        <v>0.49569999999999997</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38">
-        <v>0.59689999999999999</v>
-      </c>
-      <c r="I38">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>0.50419999999999998</v>
-      </c>
-      <c r="C39">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39">
-        <v>0.5131</v>
-      </c>
-      <c r="I39">
-        <v>0.51870000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>0.5232</v>
-      </c>
-      <c r="C40">
-        <v>0.49569999999999997</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40">
-        <v>0.51359999999999995</v>
-      </c>
-      <c r="I40">
-        <v>0.51870000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="C41">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41">
-        <v>0.5131</v>
-      </c>
-      <c r="I41">
-        <v>0.51870000000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="C42">
-        <v>0.56269999999999998</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="I42">
-        <v>0.55179999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="C43">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43">
-        <v>0.53269999999999995</v>
-      </c>
-      <c r="I43">
-        <v>0.54179999999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="I44">
-        <v>0.55179999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="I45">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I46">
-        <v>0.56269999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="I47">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76">
-        <v>0.48409999999999997</v>
-      </c>
-      <c r="C76">
-        <v>0.49070000000000003</v>
-      </c>
-      <c r="D76">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="E76">
-        <v>0.53029999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77">
-        <v>0.47710000000000002</v>
-      </c>
-      <c r="C77">
-        <v>0.4904</v>
-      </c>
-      <c r="D77">
-        <v>0.52829999999999999</v>
-      </c>
-      <c r="E77">
-        <v>0.5282</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78">
-        <v>0.48409999999999997</v>
-      </c>
-      <c r="C78">
-        <v>0.49070000000000003</v>
-      </c>
-      <c r="D78">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="E78">
-        <v>0.53029999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79">
-        <v>0.54420000000000002</v>
-      </c>
-      <c r="C79">
-        <v>0.54239999999999999</v>
-      </c>
-      <c r="D79">
-        <v>0.5615</v>
-      </c>
-      <c r="E79">
-        <v>0.54069999999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80">
-        <v>0.4919</v>
-      </c>
-      <c r="C80">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="D80">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="E80">
-        <v>0.53869999999999996</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81">
-        <v>0.54420000000000002</v>
-      </c>
-      <c r="C81">
-        <v>0.54210000000000003</v>
-      </c>
-      <c r="D81">
-        <v>0.5615</v>
-      </c>
-      <c r="E81">
-        <v>0.54069999999999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="C82">
-        <v>0.497</v>
-      </c>
-      <c r="D82">
-        <v>0.51229999999999998</v>
-      </c>
-      <c r="E82">
-        <v>0.49969999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83">
-        <v>0.48089999999999999</v>
-      </c>
-      <c r="C83">
-        <v>0.4945</v>
-      </c>
-      <c r="D83">
-        <v>0.5</v>
-      </c>
-      <c r="E83">
-        <v>0.49969999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="C84">
-        <v>0.497</v>
-      </c>
-      <c r="D84">
-        <v>0.51229999999999998</v>
-      </c>
-      <c r="E84">
-        <v>0.49969999999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85">
-        <v>0.55149999999999999</v>
-      </c>
-      <c r="C85">
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="D85">
-        <v>0.59689999999999999</v>
-      </c>
-      <c r="E85">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86">
-        <v>0.54649999999999999</v>
-      </c>
-      <c r="C86">
-        <v>0.56730000000000003</v>
-      </c>
-      <c r="D86">
-        <v>0.59409999999999996</v>
-      </c>
-      <c r="E86">
-        <v>0.61219999999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87">
-        <v>0.55149999999999999</v>
-      </c>
-      <c r="C87">
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="D87">
-        <v>0.59689999999999999</v>
-      </c>
-      <c r="E87">
-        <v>0.58589999999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="C88">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="D88">
-        <v>0.5131</v>
-      </c>
-      <c r="E88">
-        <v>0.51870000000000005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89">
-        <v>0.47010000000000002</v>
-      </c>
-      <c r="C89">
-        <v>0.48649999999999999</v>
-      </c>
-      <c r="D89">
-        <v>0.51359999999999995</v>
-      </c>
-      <c r="E89">
-        <v>0.51870000000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="C90">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="D90">
-        <v>0.5131</v>
-      </c>
-      <c r="E90">
-        <v>0.51870000000000005</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="C91">
-        <v>0.53879999999999995</v>
-      </c>
-      <c r="D91">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="E91">
-        <v>0.55179999999999996</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92">
-        <v>0.48849999999999999</v>
-      </c>
-      <c r="C92">
-        <v>0.53839999999999999</v>
-      </c>
-      <c r="D92">
-        <v>0.53269999999999995</v>
-      </c>
-      <c r="E92">
-        <v>0.54179999999999995</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="C93">
-        <v>0.53879999999999995</v>
-      </c>
-      <c r="D93">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="E93">
-        <v>0.55179999999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>39</v>
-      </c>
-      <c r="B94">
-        <v>0.5232</v>
-      </c>
-      <c r="C94">
-        <v>0.49569999999999997</v>
-      </c>
-      <c r="D94">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="E94">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95">
-        <v>0.50419999999999998</v>
-      </c>
-      <c r="C95">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="D95">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="E95">
-        <v>0.56269999999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>41</v>
-      </c>
-      <c r="B96">
-        <v>0.5232</v>
-      </c>
-      <c r="C96">
-        <v>0.49569999999999997</v>
-      </c>
-      <c r="D96">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="E96">
-        <v>0.56699999999999995</v>
+        <v>0.51276099681854204</v>
+      </c>
+      <c r="D22">
+        <v>0.51276099681854204</v>
+      </c>
+      <c r="E22">
+        <v>0.54060322046279896</v>
       </c>
     </row>
   </sheetData>
